--- a/Documents/Table_List/Devil_Table.xlsx
+++ b/Documents/Table_List/Devil_Table.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-01\Documents\GitHub\DefensiveDungeon\Documents\Table_List\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\PC-02\Desktop\github\DefensiveDungeon\Documents\Table_List\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BC6388A-4A8E-4E4B-9A01-337E38E0C253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FAC3324-9EC6-4B31-8B5C-7FA21A6EA07F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{7AF34E4C-80CA-478C-9CB8-28DECFC4AF46}"/>
   </bookViews>
   <sheets>
     <sheet name="Table_List" sheetId="2" r:id="rId1"/>
@@ -1469,7 +1469,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="789" uniqueCount="390">
   <si>
     <t>번호</t>
   </si>
@@ -2443,10 +2443,6 @@
     <t>Synergy007</t>
   </si>
   <si>
-    <t>&lt;b&gt;'(2) 체력이 30%이하인 적에게 치명타피해&lt;/b&gt;
-(4) 체력이 50%이하인 적에게 치명타피해</t>
-  </si>
-  <si>
     <t>마수2</t>
   </si>
   <si>
@@ -2463,10 +2459,6 @@
     <t>Synergy009</t>
   </si>
   <si>
-    <t>&lt;b&gt;'(2) 방어력 25% 감소&lt;/b&gt;
-(4) 방어력 40% 감소</t>
-  </si>
-  <si>
     <t>유령2</t>
   </si>
   <si>
@@ -2483,9 +2475,6 @@
     <t>Synergy011</t>
   </si>
   <si>
-    <t>&lt;b&gt;'(2)  3초 기절&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>야수1</t>
   </si>
   <si>
@@ -2493,10 +2482,6 @@
   </si>
   <si>
     <t>야수의 공격속도가 증가하며 피해를 입은 적에게 출혈 효과를 부여합니다.</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;'(2) 30%의 확률로 공격속도 10% 증가 / 초 당(데미지X0.15)의 피해 3중첩&lt;/b&gt;
-&lt;b&gt;(3) 60%의 확률로 공격속도 25% 증가 / 초 당(데미지X0.25)의 피해 3중첩&lt;/b&gt;</t>
   </si>
   <si>
     <t>야수2</t>
@@ -2518,10 +2503,6 @@
     <t>아군의 공격 사거리가 증가합니다.</t>
   </si>
   <si>
-    <t>&lt;b&gt;'(2) 아군 마인 사거리 20% 증가&lt;/b&gt;
-(3)같은 구역 아군 사거리 40% 증가</t>
-  </si>
-  <si>
     <t>마인2</t>
   </si>
   <si>
@@ -2585,10 +2566,6 @@
     <t>Synergy022</t>
   </si>
   <si>
-    <t>&lt;b&gt;'(3) 1 중첩 당 공격력5, 공격속도5% 증가 (최대 6중첩)&lt;/b&gt;
-(5) 1 중첩 당 공격력 10, 공격속도 10% 증가 (최대 6중첩)</t>
-  </si>
-  <si>
     <t>광전사2</t>
   </si>
   <si>
@@ -2605,10 +2582,6 @@
     <t>Synergy024</t>
   </si>
   <si>
-    <t>&lt;b&gt;'(2) 아군 암살자 치명타확률 20% 및 치명타피해량30% 증가&lt;/b&gt;
-(4)아군 암살자  치명타확률 30% 및 치명타피해량 50% 증가</t>
-  </si>
-  <si>
     <t>암살자2</t>
   </si>
   <si>
@@ -2619,10 +2592,6 @@
   </si>
   <si>
     <t>Synergy026</t>
-  </si>
-  <si>
-    <t>&lt;b&gt;'(2) 초 당 (데미지X0.2)의 피해 및 이동속도 20% 감소&lt;/b&gt;
-(4) 초 당 (데미지X0.3)의 피해 및 이동속도 30% 감소</t>
   </si>
   <si>
     <t>주술사2</t>
@@ -2641,10 +2610,6 @@
     <t>Synergy028</t>
   </si>
   <si>
-    <t>&lt;b&gt;'(2) 25% 확률로 쿨타임 1초 감소&lt;/b&gt;
-(3) 40% 확률로 쿨타임 1초 감소</t>
-  </si>
-  <si>
     <t>가디언2</t>
   </si>
   <si>
@@ -2661,118 +2626,125 @@
     <t>Synergy030</t>
   </si>
   <si>
-    <t>&lt;b&gt;'(2) 공격력 50% 증가 공격속도 25% 증가&lt;/b&gt;</t>
-  </si>
-  <si>
     <t>(2) 아군 암살자 치명타확률 20% 및 치명타피해량30% 증가
 &lt;b&gt;(4)아군 암살자 치명타확률 30% 및 치명타피해량 50% 증가&lt;/b&gt;</t>
   </si>
   <si>
+    <t>아군의 공격력을 증가시킵니다.</t>
+  </si>
+  <si>
+    <t>전투 라운드가 종료될 시 추가골드를 획득합니다.</t>
+  </si>
+  <si>
+    <t>불정령에게  피해를 입은 적에게 일정 확률로 화상 효과를 부여합니다.</t>
+  </si>
+  <si>
+    <t>불정령에게  피해를 입은 적에게 일정 확률으로 화상 효과를 부여합니다.</t>
+  </si>
+  <si>
+    <t>마수는 체력이 일정 이하인 적에게 100%의 확률로 치명타피해를 입힙니다.</t>
+  </si>
+  <si>
+    <t>해당 구역에 속한 적의 방어력을 감소시킵니다.</t>
+  </si>
+  <si>
+    <t>골렘의 기본 공격에 맞은 적을 기절시킵니다.</t>
+  </si>
+  <si>
+    <t>흑요정의 일반공격에 피해를 입을 시 일정 확률로 즉사합니다.</t>
+  </si>
+  <si>
+    <t>사냥꾼의 기본 공격이 주변 적을 추가로 공격합니다.</t>
+  </si>
+  <si>
+    <t>흑마법사에게 피해를 입을 시 일정 확률로 이동속도가 감소합니다.</t>
+  </si>
+  <si>
+    <t>광전사가 같은 적을 공격 시 버서커 효과를 부여합니다.
+(대상 변경 시 버서커 효과는 사라집니다.)</t>
+  </si>
+  <si>
+    <t>암살자의 치명타확률과  치명타피해량이 증가합니다.</t>
+  </si>
+  <si>
+    <t>주술사에게 피해를 입은 적에게 독 효과를 부여합니다.</t>
+  </si>
+  <si>
+    <t>주술사에게 피해를 입은 적에게 독 효과를 부여합니다</t>
+  </si>
+  <si>
+    <t>가디언이 기본 공격 시 일정 확률로 마왕의 스킬 쿨타임이 감소합니다.</t>
+  </si>
+  <si>
+    <t>군단장이 속한 구역 아군의 공격력과 공격속도가 증가합니다.</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;(2) 아군 거인 공격력 30 증가&lt;/b&gt;
+(3) 같은 구역 아군 공격력 50 증가</t>
+  </si>
+  <si>
+    <t>(2) 아군 거인 공격력 30 증가
+&lt;b&gt;(3) 같은 구역 아군 공격력 50 증가&lt;/b&gt;</t>
+  </si>
+  <si>
     <t>&lt;b&gt;(2) 추가 골드 + 3&lt;/b&gt;
 (3) 추가 골드 +5</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;b&gt;(2) 30% 확률로 화상효과 부여 / 초 당(데미지X0.3)의 피해&lt;/b&gt;
 (3)  50% 확률로 화상효과 부여 / 초 당(데미지X0.45)의 피해</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불정령에게  피해를 입은 적에게 일정 확률으로 화상 효과를 부여합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>아군의 공격력을 증가시킵니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전투 라운드가 종료될 시 추가골드를 획득합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>불정령에게  피해를 입은 적에게 일정 확률로 화상 효과를 부여합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>마수는 체력이 일정 이하인 적에게 100%의 확률로 치명타피해를 입힙니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>해당 구역에 속한 적의 방어력을 감소시킵니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>골렘의 기본 공격에 맞은 적을 기절시킵니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>야수의 공격속도가 증가하며 피해를 입은 적에게 출혈 효과를 부여합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>흑요정의 일반공격에 피해를 입을 시 일정 확률로 즉사합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>사냥꾼의 기본 공격이 주변 적을 추가로 공격합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>흑마법사에게 피해를 입을 시 일정 확률로 이동속도가 감소합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>광전사가 같은 적을 공격 시 버서커 효과를 부여합니다.
-(대상 변경 시 버서커 효과는 사라집니다.)</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>암살자의 치명타확률과  치명타피해량이 증가합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주술사에게 피해를 입은 적에게 독 효과를 부여합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>주술사에게 피해를 입은 적에게 독 효과를 부여합니다</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가디언이 기본 공격 시 일정 확률로 마왕의 스킬 쿨타임이 감소합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>군단장이 속한 구역 아군의 공격력과 공격속도가 증가합니다.</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;(2) 체력이 30%이하인 적에게 치명타피해&lt;/b&gt;
+(4) 체력이 50%이하인 적에게 치명타피해</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;(2) 방어력 25% 감소&lt;/b&gt;
+(4) 방어력 40% 감소</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;(2)  3초 기절&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;(2) 30%의 확률로 공격속도 10% 증가 / 초 당(데미지X0.15)의 피해 3중첩&lt;/b&gt;
+&lt;b&gt;(3) 60%의 확률로 공격속도 25% 증가 / 초 당(데미지X0.25)의 피해 3중첩&lt;/b&gt;</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;(2) 아군 마인 사거리 20% 증가&lt;/b&gt;
+(3)같은 구역 아군 사거리 40% 증가</t>
   </si>
   <si>
     <t>&lt;b&gt;(1) 아군 드래곤의 공격이 범위 공격 적용&lt;/b&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;b&gt;(2) 10%의 확률로 즉사&lt;/b&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;b&gt;(3) 추가 공격 3회&lt;/b&gt;
 (5) 추가 공격 5회</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>&lt;b&gt;(2) 40%확률로 이동속도 30% 감소&lt;/b&gt;
 (4) 65%확률로 이동속도 45% 감소</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>(2) 아군 거인 공격력 30 증가
-&lt;b&gt;(3) 같은 구역 아군 공격력 50 증가&lt;/b&gt;</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>&lt;b&gt;(2) 아군 거인 공격력 30 증가&lt;/b&gt;
-(3) 같은 구역 아군 공격력 50 증가</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&lt;b&gt;(3) 1 중첩 당 공격력5, 공격속도5% 증가 (최대 6중첩)&lt;/b&gt;
+(5) 1 중첩 당 공격력 10, 공격속도 10% 증가 (최대 6중첩)</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;(2) 아군 암살자 치명타확률 20% 및 치명타피해량30% 증가&lt;/b&gt;
+(4)아군 암살자  치명타확률 30% 및 치명타피해량 50% 증가</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;(2) 초 당 (데미지X0.2)의 피해 및 이동속도 20% 감소&lt;/b&gt;
+(4) 초 당 (데미지X0.3)의 피해 및 이동속도 30% 감소</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;(2) 25% 확률로 쿨타임 1초 감소&lt;/b&gt;
+(3) 40% 확률로 쿨타임 1초 감소</t>
+  </si>
+  <si>
+    <t>&lt;b&gt;(2) 공격력 50% 증가 공격속도 25% 증가&lt;/b&gt;</t>
   </si>
 </sst>
 </file>
@@ -3199,7 +3171,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3332,64 +3304,31 @@
     <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3404,10 +3343,22 @@
     <xf numFmtId="0" fontId="14" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3415,6 +3366,12 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3810,11 +3767,11 @@
       <c r="F2" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G2" s="60" t="s">
+      <c r="G2" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="H2" s="52"/>
-      <c r="I2" s="51"/>
+      <c r="H2" s="46"/>
+      <c r="I2" s="47"/>
       <c r="J2" s="9" t="s">
         <v>49</v>
       </c>
@@ -3835,11 +3792,11 @@
       <c r="F3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G3" s="61" t="s">
+      <c r="G3" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="H3" s="52"/>
-      <c r="I3" s="51"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="47"/>
       <c r="J3" s="10" t="s">
         <v>53</v>
       </c>
@@ -3848,21 +3805,21 @@
       <c r="B4" s="11">
         <v>1</v>
       </c>
-      <c r="C4" s="57" t="s">
+      <c r="C4" s="49" t="s">
         <v>54</v>
       </c>
-      <c r="D4" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="E4" s="51"/>
+      <c r="D4" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="E4" s="47"/>
       <c r="F4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="50" t="s">
+      <c r="G4" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="52"/>
-      <c r="I4" s="51"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="47"/>
       <c r="J4" s="12" t="s">
         <v>55</v>
       </c>
@@ -3871,19 +3828,19 @@
       <c r="B5" s="11">
         <v>2</v>
       </c>
-      <c r="C5" s="59"/>
-      <c r="D5" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="51"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E5" s="47"/>
       <c r="F5" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G5" s="50" t="s">
+      <c r="G5" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H5" s="52"/>
-      <c r="I5" s="51"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="47"/>
       <c r="J5" s="12" t="s">
         <v>56</v>
       </c>
@@ -3892,19 +3849,19 @@
       <c r="B6" s="11">
         <v>3</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="50" t="s">
+      <c r="C6" s="50"/>
+      <c r="D6" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E6" s="51"/>
+      <c r="E6" s="47"/>
       <c r="F6" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G6" s="50" t="s">
+      <c r="G6" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H6" s="52"/>
-      <c r="I6" s="51"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="12" t="s">
         <v>57</v>
       </c>
@@ -3913,19 +3870,19 @@
       <c r="B7" s="11">
         <v>4</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="50" t="s">
+      <c r="C7" s="50"/>
+      <c r="D7" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="51"/>
+      <c r="E7" s="47"/>
       <c r="F7" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G7" s="50" t="s">
+      <c r="G7" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="51"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="47"/>
       <c r="J7" s="12" t="s">
         <v>58</v>
       </c>
@@ -3934,19 +3891,19 @@
       <c r="B8" s="11">
         <v>5</v>
       </c>
-      <c r="C8" s="59"/>
-      <c r="D8" s="50" t="s">
+      <c r="C8" s="50"/>
+      <c r="D8" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E8" s="51"/>
+      <c r="E8" s="47"/>
       <c r="F8" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="50" t="s">
+      <c r="G8" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="51"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="47"/>
       <c r="J8" s="13" t="s">
         <v>59</v>
       </c>
@@ -3955,19 +3912,19 @@
       <c r="B9" s="11">
         <v>6</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="50" t="s">
+      <c r="C9" s="50"/>
+      <c r="D9" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="51"/>
+      <c r="E9" s="47"/>
       <c r="F9" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G9" s="50" t="s">
+      <c r="G9" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="51"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="47"/>
       <c r="J9" s="13" t="s">
         <v>61</v>
       </c>
@@ -3976,8 +3933,8 @@
       <c r="B10" s="11">
         <v>7</v>
       </c>
-      <c r="C10" s="59"/>
-      <c r="D10" s="57" t="s">
+      <c r="C10" s="50"/>
+      <c r="D10" s="49" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="12" t="s">
@@ -3986,11 +3943,11 @@
       <c r="F10" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G10" s="50" t="s">
+      <c r="G10" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="H10" s="52"/>
-      <c r="I10" s="51"/>
+      <c r="H10" s="46"/>
+      <c r="I10" s="47"/>
       <c r="J10" s="12" t="s">
         <v>62</v>
       </c>
@@ -3999,19 +3956,19 @@
       <c r="B11" s="11">
         <v>8</v>
       </c>
-      <c r="C11" s="59"/>
-      <c r="D11" s="59"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
       <c r="E11" s="12" t="s">
         <v>10</v>
       </c>
       <c r="F11" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="G11" s="50" t="s">
+      <c r="G11" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="51"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="47"/>
       <c r="J11" s="13" t="s">
         <v>64</v>
       </c>
@@ -4020,19 +3977,19 @@
       <c r="B12" s="11">
         <v>9</v>
       </c>
-      <c r="C12" s="59"/>
-      <c r="D12" s="59"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
       <c r="E12" s="12" t="s">
         <v>11</v>
       </c>
       <c r="F12" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="H12" s="52"/>
-      <c r="I12" s="51"/>
+      <c r="H12" s="46"/>
+      <c r="I12" s="47"/>
       <c r="J12" s="12" t="s">
         <v>65</v>
       </c>
@@ -4041,19 +3998,19 @@
       <c r="B13" s="11">
         <v>10</v>
       </c>
-      <c r="C13" s="59"/>
-      <c r="D13" s="59"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
       <c r="E13" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F13" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G13" s="50" t="s">
+      <c r="G13" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="H13" s="52"/>
-      <c r="I13" s="51"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="47"/>
       <c r="J13" s="12" t="s">
         <v>66</v>
       </c>
@@ -4062,19 +4019,19 @@
       <c r="B14" s="11">
         <v>11</v>
       </c>
-      <c r="C14" s="59"/>
-      <c r="D14" s="58"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
       <c r="E14" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G14" s="50" t="s">
+      <c r="G14" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="H14" s="52"/>
-      <c r="I14" s="51"/>
+      <c r="H14" s="46"/>
+      <c r="I14" s="47"/>
       <c r="J14" s="12" t="s">
         <v>67</v>
       </c>
@@ -4083,8 +4040,8 @@
       <c r="B15" s="11">
         <v>12</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="57" t="s">
+      <c r="C15" s="50"/>
+      <c r="D15" s="49" t="s">
         <v>7</v>
       </c>
       <c r="E15" s="12" t="s">
@@ -4093,11 +4050,11 @@
       <c r="F15" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="G15" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="51"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="47"/>
       <c r="J15" s="12" t="s">
         <v>69</v>
       </c>
@@ -4106,19 +4063,19 @@
       <c r="B16" s="11">
         <v>13</v>
       </c>
-      <c r="C16" s="59"/>
-      <c r="D16" s="59"/>
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
       <c r="E16" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="50" t="s">
+      <c r="G16" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H16" s="52"/>
-      <c r="I16" s="51"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="47"/>
       <c r="J16" s="12" t="s">
         <v>70</v>
       </c>
@@ -4127,19 +4084,19 @@
       <c r="B17" s="11">
         <v>14</v>
       </c>
-      <c r="C17" s="59"/>
-      <c r="D17" s="58"/>
+      <c r="C17" s="50"/>
+      <c r="D17" s="51"/>
       <c r="E17" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F17" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="50" t="s">
+      <c r="G17" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H17" s="52"/>
-      <c r="I17" s="51"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="47"/>
       <c r="J17" s="12" t="s">
         <v>70</v>
       </c>
@@ -4148,19 +4105,19 @@
       <c r="B18" s="11">
         <v>15</v>
       </c>
-      <c r="C18" s="59"/>
-      <c r="D18" s="50" t="s">
+      <c r="C18" s="50"/>
+      <c r="D18" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E18" s="51"/>
+      <c r="E18" s="47"/>
       <c r="F18" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G18" s="50" t="s">
+      <c r="G18" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H18" s="52"/>
-      <c r="I18" s="51"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="47"/>
       <c r="J18" s="12" t="s">
         <v>71</v>
       </c>
@@ -4169,19 +4126,19 @@
       <c r="B19" s="11">
         <v>16</v>
       </c>
-      <c r="C19" s="58"/>
-      <c r="D19" s="50" t="s">
+      <c r="C19" s="51"/>
+      <c r="D19" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="E19" s="51"/>
+      <c r="E19" s="47"/>
       <c r="F19" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G19" s="50" t="s">
+      <c r="G19" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="51"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="47"/>
       <c r="J19" s="12" t="s">
         <v>72</v>
       </c>
@@ -4202,11 +4159,11 @@
       <c r="F21" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G21" s="60" t="s">
+      <c r="G21" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="H21" s="52"/>
-      <c r="I21" s="51"/>
+      <c r="H21" s="46"/>
+      <c r="I21" s="47"/>
       <c r="J21" s="9" t="s">
         <v>49</v>
       </c>
@@ -4227,11 +4184,11 @@
       <c r="F22" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="61" t="s">
+      <c r="G22" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="H22" s="52"/>
-      <c r="I22" s="51"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="47"/>
       <c r="J22" s="10" t="s">
         <v>53</v>
       </c>
@@ -4240,21 +4197,21 @@
       <c r="B23" s="11">
         <v>1</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="49" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="E23" s="51"/>
+      <c r="D23" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="E23" s="47"/>
       <c r="F23" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G23" s="50" t="s">
+      <c r="G23" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H23" s="52"/>
-      <c r="I23" s="51"/>
+      <c r="H23" s="46"/>
+      <c r="I23" s="47"/>
       <c r="J23" s="12" t="s">
         <v>55</v>
       </c>
@@ -4263,19 +4220,19 @@
       <c r="B24" s="11">
         <v>2</v>
       </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="51"/>
+      <c r="C24" s="50"/>
+      <c r="D24" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="47"/>
       <c r="F24" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G24" s="50" t="s">
+      <c r="G24" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H24" s="52"/>
-      <c r="I24" s="51"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="47"/>
       <c r="J24" s="12" t="s">
         <v>56</v>
       </c>
@@ -4284,19 +4241,19 @@
       <c r="B25" s="11">
         <v>3</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="50" t="s">
+      <c r="C25" s="50"/>
+      <c r="D25" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E25" s="51"/>
+      <c r="E25" s="47"/>
       <c r="F25" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="50" t="s">
+      <c r="G25" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H25" s="52"/>
-      <c r="I25" s="51"/>
+      <c r="H25" s="46"/>
+      <c r="I25" s="47"/>
       <c r="J25" s="12" t="s">
         <v>57</v>
       </c>
@@ -4305,19 +4262,19 @@
       <c r="B26" s="11">
         <v>4</v>
       </c>
-      <c r="C26" s="59"/>
-      <c r="D26" s="50" t="s">
+      <c r="C26" s="50"/>
+      <c r="D26" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E26" s="51"/>
+      <c r="E26" s="47"/>
       <c r="F26" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G26" s="50" t="s">
+      <c r="G26" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H26" s="52"/>
-      <c r="I26" s="51"/>
+      <c r="H26" s="46"/>
+      <c r="I26" s="47"/>
       <c r="J26" s="12" t="s">
         <v>58</v>
       </c>
@@ -4326,19 +4283,19 @@
       <c r="B27" s="11">
         <v>5</v>
       </c>
-      <c r="C27" s="59"/>
-      <c r="D27" s="50" t="s">
+      <c r="C27" s="50"/>
+      <c r="D27" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="E27" s="51"/>
+      <c r="E27" s="47"/>
       <c r="F27" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G27" s="50" t="s">
+      <c r="G27" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H27" s="52"/>
-      <c r="I27" s="51"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="47"/>
       <c r="J27" s="13" t="s">
         <v>59</v>
       </c>
@@ -4347,19 +4304,19 @@
       <c r="B28" s="11">
         <v>6</v>
       </c>
-      <c r="C28" s="59"/>
-      <c r="D28" s="50" t="s">
+      <c r="C28" s="50"/>
+      <c r="D28" s="52" t="s">
         <v>60</v>
       </c>
-      <c r="E28" s="51"/>
+      <c r="E28" s="47"/>
       <c r="F28" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="G28" s="50" t="s">
+      <c r="G28" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H28" s="52"/>
-      <c r="I28" s="51"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="47"/>
       <c r="J28" s="13" t="s">
         <v>61</v>
       </c>
@@ -4368,19 +4325,19 @@
       <c r="B29" s="11">
         <v>7</v>
       </c>
-      <c r="C29" s="59"/>
-      <c r="D29" s="64" t="s">
+      <c r="C29" s="50"/>
+      <c r="D29" s="53" t="s">
         <v>74</v>
       </c>
-      <c r="E29" s="67"/>
+      <c r="E29" s="56"/>
       <c r="F29" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G29" s="64" t="s">
+      <c r="G29" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="H29" s="65"/>
-      <c r="I29" s="66"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="55"/>
       <c r="J29" s="16" t="s">
         <v>76</v>
       </c>
@@ -4389,8 +4346,8 @@
       <c r="B30" s="11">
         <v>8</v>
       </c>
-      <c r="C30" s="59"/>
-      <c r="D30" s="57" t="s">
+      <c r="C30" s="50"/>
+      <c r="D30" s="49" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="12" t="s">
@@ -4399,11 +4356,11 @@
       <c r="F30" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="G30" s="50" t="s">
+      <c r="G30" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="H30" s="52"/>
-      <c r="I30" s="51"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="47"/>
       <c r="J30" s="12" t="s">
         <v>62</v>
       </c>
@@ -4412,19 +4369,19 @@
       <c r="B31" s="11">
         <v>11</v>
       </c>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="50"/>
       <c r="E31" s="12" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="G31" s="50" t="s">
+      <c r="G31" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="H31" s="52"/>
-      <c r="I31" s="51"/>
+      <c r="H31" s="46"/>
+      <c r="I31" s="47"/>
       <c r="J31" s="12" t="s">
         <v>66</v>
       </c>
@@ -4433,19 +4390,19 @@
       <c r="B32" s="11">
         <v>12</v>
       </c>
-      <c r="C32" s="59"/>
-      <c r="D32" s="58"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="51"/>
       <c r="E32" s="12" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="G32" s="50" t="s">
+      <c r="G32" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="H32" s="52"/>
-      <c r="I32" s="51"/>
+      <c r="H32" s="46"/>
+      <c r="I32" s="47"/>
       <c r="J32" s="12" t="s">
         <v>67</v>
       </c>
@@ -4454,8 +4411,8 @@
       <c r="B33" s="11">
         <v>13</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="57" t="s">
+      <c r="C33" s="50"/>
+      <c r="D33" s="49" t="s">
         <v>7</v>
       </c>
       <c r="E33" s="12" t="s">
@@ -4464,11 +4421,11 @@
       <c r="F33" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="G33" s="50" t="s">
+      <c r="G33" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H33" s="52"/>
-      <c r="I33" s="51"/>
+      <c r="H33" s="46"/>
+      <c r="I33" s="47"/>
       <c r="J33" s="12" t="s">
         <v>69</v>
       </c>
@@ -4477,19 +4434,19 @@
       <c r="B34" s="11">
         <v>14</v>
       </c>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="50"/>
       <c r="E34" s="12" t="s">
         <v>15</v>
       </c>
       <c r="F34" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="G34" s="50" t="s">
+      <c r="G34" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H34" s="52"/>
-      <c r="I34" s="51"/>
+      <c r="H34" s="46"/>
+      <c r="I34" s="47"/>
       <c r="J34" s="12" t="s">
         <v>70</v>
       </c>
@@ -4498,19 +4455,19 @@
       <c r="B35" s="11">
         <v>15</v>
       </c>
-      <c r="C35" s="59"/>
-      <c r="D35" s="58"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="51"/>
       <c r="E35" s="12" t="s">
         <v>16</v>
       </c>
       <c r="F35" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="G35" s="50" t="s">
+      <c r="G35" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H35" s="52"/>
-      <c r="I35" s="51"/>
+      <c r="H35" s="46"/>
+      <c r="I35" s="47"/>
       <c r="J35" s="12" t="s">
         <v>70</v>
       </c>
@@ -4519,8 +4476,8 @@
       <c r="B36" s="11">
         <v>16</v>
       </c>
-      <c r="C36" s="59"/>
-      <c r="D36" s="57" t="s">
+      <c r="C36" s="50"/>
+      <c r="D36" s="49" t="s">
         <v>77</v>
       </c>
       <c r="E36" s="12" t="s">
@@ -4529,11 +4486,11 @@
       <c r="F36" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="G36" s="50" t="s">
+      <c r="G36" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H36" s="52"/>
-      <c r="I36" s="51"/>
+      <c r="H36" s="46"/>
+      <c r="I36" s="47"/>
       <c r="J36" s="12" t="s">
         <v>80</v>
       </c>
@@ -4542,19 +4499,19 @@
       <c r="B37" s="11">
         <v>17</v>
       </c>
-      <c r="C37" s="59"/>
-      <c r="D37" s="58"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="51"/>
       <c r="E37" s="12" t="s">
         <v>81</v>
       </c>
       <c r="F37" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="G37" s="50" t="s">
+      <c r="G37" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H37" s="52"/>
-      <c r="I37" s="51"/>
+      <c r="H37" s="46"/>
+      <c r="I37" s="47"/>
       <c r="J37" s="12" t="s">
         <v>80</v>
       </c>
@@ -4563,19 +4520,19 @@
       <c r="B38" s="11">
         <v>18</v>
       </c>
-      <c r="C38" s="59"/>
-      <c r="D38" s="62" t="s">
+      <c r="C38" s="50"/>
+      <c r="D38" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="E38" s="63"/>
+      <c r="E38" s="58"/>
       <c r="F38" s="15" t="s">
         <v>84</v>
       </c>
-      <c r="G38" s="64" t="s">
+      <c r="G38" s="53" t="s">
         <v>32</v>
       </c>
-      <c r="H38" s="65"/>
-      <c r="I38" s="66"/>
+      <c r="H38" s="54"/>
+      <c r="I38" s="55"/>
       <c r="J38" s="15" t="s">
         <v>85</v>
       </c>
@@ -4584,19 +4541,19 @@
       <c r="B39" s="11">
         <v>19</v>
       </c>
-      <c r="C39" s="59"/>
-      <c r="D39" s="50" t="s">
+      <c r="C39" s="50"/>
+      <c r="D39" s="52" t="s">
         <v>86</v>
       </c>
-      <c r="E39" s="51"/>
+      <c r="E39" s="47"/>
       <c r="F39" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="G39" s="50" t="s">
+      <c r="G39" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="H39" s="52"/>
-      <c r="I39" s="51"/>
+      <c r="H39" s="46"/>
+      <c r="I39" s="47"/>
       <c r="J39" s="12" t="s">
         <v>88</v>
       </c>
@@ -4605,19 +4562,19 @@
       <c r="B40" s="11">
         <v>20</v>
       </c>
-      <c r="C40" s="59"/>
-      <c r="D40" s="50" t="s">
+      <c r="C40" s="50"/>
+      <c r="D40" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E40" s="51"/>
+      <c r="E40" s="47"/>
       <c r="F40" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G40" s="50" t="s">
+      <c r="G40" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H40" s="52"/>
-      <c r="I40" s="51"/>
+      <c r="H40" s="46"/>
+      <c r="I40" s="47"/>
       <c r="J40" s="12" t="s">
         <v>71</v>
       </c>
@@ -4626,19 +4583,19 @@
       <c r="B41" s="11">
         <v>21</v>
       </c>
-      <c r="C41" s="58"/>
-      <c r="D41" s="50" t="s">
+      <c r="C41" s="51"/>
+      <c r="D41" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="E41" s="51"/>
+      <c r="E41" s="47"/>
       <c r="F41" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G41" s="50" t="s">
+      <c r="G41" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H41" s="52"/>
-      <c r="I41" s="51"/>
+      <c r="H41" s="46"/>
+      <c r="I41" s="47"/>
       <c r="J41" s="12" t="s">
         <v>72</v>
       </c>
@@ -4659,11 +4616,11 @@
       <c r="F43" s="9" t="s">
         <v>47</v>
       </c>
-      <c r="G43" s="60" t="s">
+      <c r="G43" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="H43" s="52"/>
-      <c r="I43" s="51"/>
+      <c r="H43" s="46"/>
+      <c r="I43" s="47"/>
       <c r="J43" s="9" t="s">
         <v>49</v>
       </c>
@@ -4684,11 +4641,11 @@
       <c r="F44" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="G44" s="61" t="s">
+      <c r="G44" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="H44" s="52"/>
-      <c r="I44" s="51"/>
+      <c r="H44" s="46"/>
+      <c r="I44" s="47"/>
       <c r="J44" s="10" t="s">
         <v>53</v>
       </c>
@@ -4697,21 +4654,21 @@
       <c r="B45" s="11">
         <v>1</v>
       </c>
-      <c r="C45" s="57" t="s">
+      <c r="C45" s="49" t="s">
         <v>199</v>
       </c>
-      <c r="D45" s="50" t="s">
-        <v>0</v>
-      </c>
-      <c r="E45" s="51"/>
+      <c r="D45" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="E45" s="47"/>
       <c r="F45" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="50" t="s">
+      <c r="G45" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H45" s="52"/>
-      <c r="I45" s="51"/>
+      <c r="H45" s="46"/>
+      <c r="I45" s="47"/>
       <c r="J45" s="12" t="s">
         <v>55</v>
       </c>
@@ -4720,19 +4677,19 @@
       <c r="B46" s="11">
         <v>2</v>
       </c>
-      <c r="C46" s="59"/>
-      <c r="D46" s="50" t="s">
-        <v>1</v>
-      </c>
-      <c r="E46" s="51"/>
+      <c r="C46" s="50"/>
+      <c r="D46" s="52" t="s">
+        <v>1</v>
+      </c>
+      <c r="E46" s="47"/>
       <c r="F46" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="G46" s="50" t="s">
+      <c r="G46" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H46" s="52"/>
-      <c r="I46" s="51"/>
+      <c r="H46" s="46"/>
+      <c r="I46" s="47"/>
       <c r="J46" s="12" t="s">
         <v>56</v>
       </c>
@@ -4741,19 +4698,19 @@
       <c r="B47" s="11">
         <v>3</v>
       </c>
-      <c r="C47" s="59"/>
-      <c r="D47" s="50" t="s">
+      <c r="C47" s="50"/>
+      <c r="D47" s="52" t="s">
         <v>2</v>
       </c>
-      <c r="E47" s="51"/>
+      <c r="E47" s="47"/>
       <c r="F47" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="50" t="s">
+      <c r="G47" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H47" s="52"/>
-      <c r="I47" s="51"/>
+      <c r="H47" s="46"/>
+      <c r="I47" s="47"/>
       <c r="J47" s="12" t="s">
         <v>57</v>
       </c>
@@ -4762,19 +4719,19 @@
       <c r="B48" s="11">
         <v>4</v>
       </c>
-      <c r="C48" s="59"/>
-      <c r="D48" s="50" t="s">
+      <c r="C48" s="50"/>
+      <c r="D48" s="52" t="s">
         <v>3</v>
       </c>
-      <c r="E48" s="51"/>
+      <c r="E48" s="47"/>
       <c r="F48" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="G48" s="50" t="s">
+      <c r="G48" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H48" s="52"/>
-      <c r="I48" s="51"/>
+      <c r="H48" s="46"/>
+      <c r="I48" s="47"/>
       <c r="J48" s="12" t="s">
         <v>200</v>
       </c>
@@ -4783,19 +4740,19 @@
       <c r="B49" s="11">
         <v>5</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="50" t="s">
+      <c r="C49" s="50"/>
+      <c r="D49" s="52" t="s">
         <v>201</v>
       </c>
-      <c r="E49" s="51"/>
+      <c r="E49" s="47"/>
       <c r="F49" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="G49" s="50" t="s">
+      <c r="G49" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H49" s="52"/>
-      <c r="I49" s="51"/>
+      <c r="H49" s="46"/>
+      <c r="I49" s="47"/>
       <c r="J49" s="12" t="s">
         <v>202</v>
       </c>
@@ -4804,19 +4761,19 @@
       <c r="B50" s="11">
         <v>6</v>
       </c>
-      <c r="C50" s="59"/>
-      <c r="D50" s="50" t="s">
+      <c r="C50" s="50"/>
+      <c r="D50" s="52" t="s">
         <v>203</v>
       </c>
-      <c r="E50" s="51"/>
+      <c r="E50" s="47"/>
       <c r="F50" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="G50" s="50" t="s">
+      <c r="G50" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H50" s="52"/>
-      <c r="I50" s="51"/>
+      <c r="H50" s="46"/>
+      <c r="I50" s="47"/>
       <c r="J50" s="12" t="s">
         <v>205</v>
       </c>
@@ -4825,15 +4782,15 @@
       <c r="B51" s="11">
         <v>7</v>
       </c>
-      <c r="C51" s="59"/>
-      <c r="D51" s="53" t="s">
+      <c r="C51" s="50"/>
+      <c r="D51" s="59" t="s">
         <v>206</v>
       </c>
-      <c r="E51" s="54"/>
-      <c r="F51" s="57" t="s">
+      <c r="E51" s="60"/>
+      <c r="F51" s="49" t="s">
         <v>207</v>
       </c>
-      <c r="G51" s="57" t="s">
+      <c r="G51" s="49" t="s">
         <v>32</v>
       </c>
       <c r="H51" s="12">
@@ -4850,11 +4807,11 @@
       <c r="B52" s="11">
         <v>8</v>
       </c>
-      <c r="C52" s="59"/>
-      <c r="D52" s="55"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="58"/>
-      <c r="G52" s="58"/>
+      <c r="C52" s="50"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="62"/>
+      <c r="F52" s="51"/>
+      <c r="G52" s="51"/>
       <c r="H52" s="12">
         <v>2</v>
       </c>
@@ -4869,17 +4826,17 @@
       <c r="B53" s="11">
         <v>9</v>
       </c>
-      <c r="C53" s="59"/>
-      <c r="D53" s="57" t="s">
+      <c r="C53" s="50"/>
+      <c r="D53" s="49" t="s">
         <v>212</v>
       </c>
-      <c r="E53" s="57" t="s">
+      <c r="E53" s="49" t="s">
         <v>213</v>
       </c>
-      <c r="F53" s="57" t="s">
+      <c r="F53" s="49" t="s">
         <v>214</v>
       </c>
-      <c r="G53" s="57" t="s">
+      <c r="G53" s="49" t="s">
         <v>32</v>
       </c>
       <c r="H53" s="12">
@@ -4896,11 +4853,11 @@
       <c r="B54" s="11">
         <v>10</v>
       </c>
-      <c r="C54" s="59"/>
-      <c r="D54" s="59"/>
-      <c r="E54" s="59"/>
-      <c r="F54" s="59"/>
-      <c r="G54" s="59"/>
+      <c r="C54" s="50"/>
+      <c r="D54" s="50"/>
+      <c r="E54" s="50"/>
+      <c r="F54" s="50"/>
+      <c r="G54" s="50"/>
       <c r="H54" s="12">
         <v>2</v>
       </c>
@@ -4915,11 +4872,11 @@
       <c r="B55" s="11">
         <v>11</v>
       </c>
-      <c r="C55" s="59"/>
-      <c r="D55" s="59"/>
-      <c r="E55" s="59"/>
-      <c r="F55" s="59"/>
-      <c r="G55" s="59"/>
+      <c r="C55" s="50"/>
+      <c r="D55" s="50"/>
+      <c r="E55" s="50"/>
+      <c r="F55" s="50"/>
+      <c r="G55" s="50"/>
       <c r="H55" s="12">
         <v>3</v>
       </c>
@@ -4934,11 +4891,11 @@
       <c r="B56" s="11">
         <v>12</v>
       </c>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
+      <c r="C56" s="50"/>
+      <c r="D56" s="50"/>
+      <c r="E56" s="50"/>
+      <c r="F56" s="50"/>
+      <c r="G56" s="50"/>
       <c r="H56" s="12">
         <v>4</v>
       </c>
@@ -4953,11 +4910,11 @@
       <c r="B57" s="11">
         <v>13</v>
       </c>
-      <c r="C57" s="59"/>
-      <c r="D57" s="59"/>
-      <c r="E57" s="58"/>
-      <c r="F57" s="58"/>
-      <c r="G57" s="58"/>
+      <c r="C57" s="50"/>
+      <c r="D57" s="50"/>
+      <c r="E57" s="51"/>
+      <c r="F57" s="51"/>
+      <c r="G57" s="51"/>
       <c r="H57" s="12">
         <v>5</v>
       </c>
@@ -4972,15 +4929,15 @@
       <c r="B58" s="11">
         <v>14</v>
       </c>
-      <c r="C58" s="59"/>
-      <c r="D58" s="59"/>
-      <c r="E58" s="57" t="s">
+      <c r="C58" s="50"/>
+      <c r="D58" s="50"/>
+      <c r="E58" s="49" t="s">
         <v>225</v>
       </c>
-      <c r="F58" s="57" t="s">
+      <c r="F58" s="49" t="s">
         <v>226</v>
       </c>
-      <c r="G58" s="57" t="s">
+      <c r="G58" s="49" t="s">
         <v>32</v>
       </c>
       <c r="H58" s="12">
@@ -4997,11 +4954,11 @@
       <c r="B59" s="11">
         <v>15</v>
       </c>
-      <c r="C59" s="59"/>
-      <c r="D59" s="59"/>
-      <c r="E59" s="59"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="59"/>
+      <c r="C59" s="50"/>
+      <c r="D59" s="50"/>
+      <c r="E59" s="50"/>
+      <c r="F59" s="50"/>
+      <c r="G59" s="50"/>
       <c r="H59" s="12">
         <v>2</v>
       </c>
@@ -5016,11 +4973,11 @@
       <c r="B60" s="11">
         <v>16</v>
       </c>
-      <c r="C60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="58"/>
-      <c r="F60" s="58"/>
-      <c r="G60" s="58"/>
+      <c r="C60" s="50"/>
+      <c r="D60" s="50"/>
+      <c r="E60" s="51"/>
+      <c r="F60" s="51"/>
+      <c r="G60" s="51"/>
       <c r="H60" s="12">
         <v>3</v>
       </c>
@@ -5035,19 +4992,19 @@
       <c r="B61" s="11">
         <v>17</v>
       </c>
-      <c r="C61" s="59"/>
-      <c r="D61" s="59"/>
+      <c r="C61" s="50"/>
+      <c r="D61" s="50"/>
       <c r="E61" s="12" t="s">
         <v>233</v>
       </c>
       <c r="F61" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="G61" s="50" t="s">
+      <c r="G61" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H61" s="52"/>
-      <c r="I61" s="51"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="47"/>
       <c r="J61" s="12" t="s">
         <v>235</v>
       </c>
@@ -5056,15 +5013,15 @@
       <c r="B62" s="11">
         <v>18</v>
       </c>
-      <c r="C62" s="59"/>
-      <c r="D62" s="59"/>
-      <c r="E62" s="57" t="s">
+      <c r="C62" s="50"/>
+      <c r="D62" s="50"/>
+      <c r="E62" s="49" t="s">
         <v>236</v>
       </c>
-      <c r="F62" s="57" t="s">
+      <c r="F62" s="49" t="s">
         <v>237</v>
       </c>
-      <c r="G62" s="57" t="s">
+      <c r="G62" s="49" t="s">
         <v>32</v>
       </c>
       <c r="H62" s="12">
@@ -5081,11 +5038,11 @@
       <c r="B63" s="11">
         <v>19</v>
       </c>
-      <c r="C63" s="59"/>
-      <c r="D63" s="59"/>
-      <c r="E63" s="59"/>
-      <c r="F63" s="59"/>
-      <c r="G63" s="59"/>
+      <c r="C63" s="50"/>
+      <c r="D63" s="50"/>
+      <c r="E63" s="50"/>
+      <c r="F63" s="50"/>
+      <c r="G63" s="50"/>
       <c r="H63" s="12">
         <v>2</v>
       </c>
@@ -5100,11 +5057,11 @@
       <c r="B64" s="11">
         <v>20</v>
       </c>
-      <c r="C64" s="59"/>
-      <c r="D64" s="59"/>
-      <c r="E64" s="59"/>
-      <c r="F64" s="59"/>
-      <c r="G64" s="59"/>
+      <c r="C64" s="50"/>
+      <c r="D64" s="50"/>
+      <c r="E64" s="50"/>
+      <c r="F64" s="50"/>
+      <c r="G64" s="50"/>
       <c r="H64" s="12">
         <v>3</v>
       </c>
@@ -5119,11 +5076,11 @@
       <c r="B65" s="11">
         <v>21</v>
       </c>
-      <c r="C65" s="59"/>
-      <c r="D65" s="59"/>
-      <c r="E65" s="58"/>
-      <c r="F65" s="58"/>
-      <c r="G65" s="58"/>
+      <c r="C65" s="50"/>
+      <c r="D65" s="50"/>
+      <c r="E65" s="51"/>
+      <c r="F65" s="51"/>
+      <c r="G65" s="51"/>
       <c r="H65" s="12">
         <v>4</v>
       </c>
@@ -5138,19 +5095,19 @@
       <c r="B66" s="11">
         <v>22</v>
       </c>
-      <c r="C66" s="59"/>
-      <c r="D66" s="59"/>
+      <c r="C66" s="50"/>
+      <c r="D66" s="50"/>
       <c r="E66" s="12" t="s">
         <v>246</v>
       </c>
       <c r="F66" s="12" t="s">
         <v>247</v>
       </c>
-      <c r="G66" s="50" t="s">
+      <c r="G66" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H66" s="52"/>
-      <c r="I66" s="51"/>
+      <c r="H66" s="46"/>
+      <c r="I66" s="47"/>
       <c r="J66" s="12" t="s">
         <v>248</v>
       </c>
@@ -5159,19 +5116,19 @@
       <c r="B67" s="11">
         <v>23</v>
       </c>
-      <c r="C67" s="59"/>
-      <c r="D67" s="58"/>
+      <c r="C67" s="50"/>
+      <c r="D67" s="51"/>
       <c r="E67" s="12" t="s">
         <v>249</v>
       </c>
       <c r="F67" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="G67" s="50" t="s">
+      <c r="G67" s="52" t="s">
         <v>34</v>
       </c>
-      <c r="H67" s="52"/>
-      <c r="I67" s="51"/>
+      <c r="H67" s="46"/>
+      <c r="I67" s="47"/>
       <c r="J67" s="12" t="s">
         <v>251</v>
       </c>
@@ -5180,19 +5137,19 @@
       <c r="B68" s="11">
         <v>24</v>
       </c>
-      <c r="C68" s="59"/>
-      <c r="D68" s="50" t="s">
+      <c r="C68" s="50"/>
+      <c r="D68" s="52" t="s">
         <v>252</v>
       </c>
-      <c r="E68" s="51"/>
+      <c r="E68" s="47"/>
       <c r="F68" s="12" t="s">
         <v>253</v>
       </c>
-      <c r="G68" s="50" t="s">
+      <c r="G68" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H68" s="52"/>
-      <c r="I68" s="51"/>
+      <c r="H68" s="46"/>
+      <c r="I68" s="47"/>
       <c r="J68" s="12" t="s">
         <v>260</v>
       </c>
@@ -5201,19 +5158,19 @@
       <c r="B69" s="11">
         <v>25</v>
       </c>
-      <c r="C69" s="59"/>
-      <c r="D69" s="50" t="s">
+      <c r="C69" s="50"/>
+      <c r="D69" s="52" t="s">
         <v>8</v>
       </c>
-      <c r="E69" s="51"/>
+      <c r="E69" s="47"/>
       <c r="F69" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="G69" s="50" t="s">
+      <c r="G69" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="H69" s="52"/>
-      <c r="I69" s="51"/>
+      <c r="H69" s="46"/>
+      <c r="I69" s="47"/>
       <c r="J69" s="12" t="s">
         <v>254</v>
       </c>
@@ -5222,19 +5179,19 @@
       <c r="B70" s="11">
         <v>26</v>
       </c>
-      <c r="C70" s="59"/>
-      <c r="D70" s="50" t="s">
+      <c r="C70" s="50"/>
+      <c r="D70" s="52" t="s">
         <v>255</v>
       </c>
-      <c r="E70" s="51"/>
+      <c r="E70" s="47"/>
       <c r="F70" s="12" t="s">
         <v>256</v>
       </c>
-      <c r="G70" s="50" t="s">
+      <c r="G70" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H70" s="52"/>
-      <c r="I70" s="51"/>
+      <c r="H70" s="46"/>
+      <c r="I70" s="47"/>
       <c r="J70" s="12" t="s">
         <v>261</v>
       </c>
@@ -5243,19 +5200,19 @@
       <c r="B71" s="11">
         <v>27</v>
       </c>
-      <c r="C71" s="59"/>
-      <c r="D71" s="50" t="s">
+      <c r="C71" s="50"/>
+      <c r="D71" s="52" t="s">
         <v>257</v>
       </c>
-      <c r="E71" s="51"/>
+      <c r="E71" s="47"/>
       <c r="F71" s="12" t="s">
         <v>258</v>
       </c>
-      <c r="G71" s="50" t="s">
+      <c r="G71" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H71" s="52"/>
-      <c r="I71" s="51"/>
+      <c r="H71" s="46"/>
+      <c r="I71" s="47"/>
       <c r="J71" s="12" t="s">
         <v>259</v>
       </c>
@@ -5264,25 +5221,107 @@
       <c r="B72" s="11">
         <v>28</v>
       </c>
-      <c r="C72" s="58"/>
-      <c r="D72" s="50" t="s">
+      <c r="C72" s="51"/>
+      <c r="D72" s="52" t="s">
         <v>41</v>
       </c>
-      <c r="E72" s="51"/>
+      <c r="E72" s="47"/>
       <c r="F72" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="G72" s="50" t="s">
+      <c r="G72" s="52" t="s">
         <v>33</v>
       </c>
-      <c r="H72" s="52"/>
-      <c r="I72" s="51"/>
+      <c r="H72" s="46"/>
+      <c r="I72" s="47"/>
       <c r="J72" s="12" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="106">
+    <mergeCell ref="G66:I66"/>
+    <mergeCell ref="D70:E70"/>
+    <mergeCell ref="G70:I70"/>
+    <mergeCell ref="D71:E71"/>
+    <mergeCell ref="G71:I71"/>
+    <mergeCell ref="D72:E72"/>
+    <mergeCell ref="G72:I72"/>
+    <mergeCell ref="G67:I67"/>
+    <mergeCell ref="D68:E68"/>
+    <mergeCell ref="G68:I68"/>
+    <mergeCell ref="D69:E69"/>
+    <mergeCell ref="G69:I69"/>
+    <mergeCell ref="E53:E57"/>
+    <mergeCell ref="F53:F57"/>
+    <mergeCell ref="G53:G57"/>
+    <mergeCell ref="E58:E60"/>
+    <mergeCell ref="F58:F60"/>
+    <mergeCell ref="G58:G60"/>
+    <mergeCell ref="G61:I61"/>
+    <mergeCell ref="E62:E65"/>
+    <mergeCell ref="F62:F65"/>
+    <mergeCell ref="G62:G65"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="G41:I41"/>
+    <mergeCell ref="G43:I43"/>
+    <mergeCell ref="G44:I44"/>
+    <mergeCell ref="C45:C72"/>
+    <mergeCell ref="D45:E45"/>
+    <mergeCell ref="G45:I45"/>
+    <mergeCell ref="D46:E46"/>
+    <mergeCell ref="G46:I46"/>
+    <mergeCell ref="D47:E47"/>
+    <mergeCell ref="G47:I47"/>
+    <mergeCell ref="D48:E48"/>
+    <mergeCell ref="G48:I48"/>
+    <mergeCell ref="D49:E49"/>
+    <mergeCell ref="G49:I49"/>
+    <mergeCell ref="D50:E50"/>
+    <mergeCell ref="G50:I50"/>
+    <mergeCell ref="D51:E52"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="D53:D67"/>
+    <mergeCell ref="C23:C41"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="D33:D35"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="D10:D14"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D30:D32"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G22:I22"/>
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="G3:I3"/>
     <mergeCell ref="C4:C19"/>
@@ -5307,88 +5346,6 @@
     <mergeCell ref="G17:I17"/>
     <mergeCell ref="D18:E18"/>
     <mergeCell ref="G18:I18"/>
-    <mergeCell ref="D10:D14"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D30:D32"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="C23:C41"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="D33:D35"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="G41:I41"/>
-    <mergeCell ref="G43:I43"/>
-    <mergeCell ref="G44:I44"/>
-    <mergeCell ref="C45:C72"/>
-    <mergeCell ref="D45:E45"/>
-    <mergeCell ref="G45:I45"/>
-    <mergeCell ref="D46:E46"/>
-    <mergeCell ref="G46:I46"/>
-    <mergeCell ref="D47:E47"/>
-    <mergeCell ref="G47:I47"/>
-    <mergeCell ref="D48:E48"/>
-    <mergeCell ref="G48:I48"/>
-    <mergeCell ref="D49:E49"/>
-    <mergeCell ref="G49:I49"/>
-    <mergeCell ref="D50:E50"/>
-    <mergeCell ref="G50:I50"/>
-    <mergeCell ref="D51:E52"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="D53:D67"/>
-    <mergeCell ref="E53:E57"/>
-    <mergeCell ref="F53:F57"/>
-    <mergeCell ref="G53:G57"/>
-    <mergeCell ref="E58:E60"/>
-    <mergeCell ref="F58:F60"/>
-    <mergeCell ref="G58:G60"/>
-    <mergeCell ref="G61:I61"/>
-    <mergeCell ref="E62:E65"/>
-    <mergeCell ref="F62:F65"/>
-    <mergeCell ref="G62:G65"/>
-    <mergeCell ref="G66:I66"/>
-    <mergeCell ref="D70:E70"/>
-    <mergeCell ref="G70:I70"/>
-    <mergeCell ref="D71:E71"/>
-    <mergeCell ref="G71:I71"/>
-    <mergeCell ref="D72:E72"/>
-    <mergeCell ref="G72:I72"/>
-    <mergeCell ref="G67:I67"/>
-    <mergeCell ref="D68:E68"/>
-    <mergeCell ref="G68:I68"/>
-    <mergeCell ref="D69:E69"/>
-    <mergeCell ref="G69:I69"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5399,8 +5356,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F0D4117-42E6-4E86-8FDC-C4E7767D92FA}">
   <dimension ref="B2:Q8"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6:P8"/>
+    <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="85" zoomScaleSheetLayoutView="130" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -5413,50 +5370,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:17">
-      <c r="B2" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="68" t="s">
+      <c r="B2" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="72" t="s">
+      <c r="H2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="73"/>
-      <c r="J2" s="73"/>
-      <c r="K2" s="73"/>
-      <c r="L2" s="74"/>
-      <c r="M2" s="70" t="s">
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="N2" s="71"/>
-      <c r="O2" s="71"/>
-      <c r="P2" s="70" t="s">
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="Q2" s="68" t="s">
+      <c r="Q2" s="65" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:17">
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
       <c r="H3" s="1" t="s">
         <v>9</v>
       </c>
@@ -5481,8 +5438,8 @@
       <c r="O3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="69"/>
+      <c r="P3" s="64"/>
+      <c r="Q3" s="66"/>
     </row>
     <row r="4" spans="2:17">
       <c r="B4" s="3" t="s">
@@ -5730,16 +5687,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="M2:O2"/>
     <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5786,62 +5743,62 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:20">
-      <c r="B2" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="68" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="68" t="s">
+      <c r="B2" s="65" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="F2" s="63" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="70" t="s">
+      <c r="G2" s="63" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="75" t="s">
+      <c r="H2" s="70" t="s">
         <v>74</v>
       </c>
-      <c r="I2" s="72" t="s">
+      <c r="I2" s="67" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="73"/>
-      <c r="K2" s="74"/>
-      <c r="L2" s="70" t="s">
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="M2" s="71"/>
-      <c r="N2" s="71"/>
-      <c r="O2" s="70" t="s">
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="63" t="s">
         <v>165</v>
       </c>
-      <c r="P2" s="71"/>
-      <c r="Q2" s="77" t="s">
+      <c r="P2" s="64"/>
+      <c r="Q2" s="72" t="s">
         <v>83</v>
       </c>
-      <c r="R2" s="78" t="s">
+      <c r="R2" s="73" t="s">
         <v>86</v>
       </c>
-      <c r="S2" s="70" t="s">
+      <c r="S2" s="63" t="s">
         <v>8</v>
       </c>
-      <c r="T2" s="68" t="s">
+      <c r="T2" s="65" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:20">
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="71"/>
-      <c r="G3" s="71"/>
-      <c r="H3" s="76"/>
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="64"/>
+      <c r="H3" s="71"/>
       <c r="I3" s="1" t="s">
         <v>9</v>
       </c>
@@ -5866,10 +5823,10 @@
       <c r="P3" s="1" t="s">
         <v>81</v>
       </c>
-      <c r="Q3" s="69"/>
-      <c r="R3" s="69"/>
-      <c r="S3" s="71"/>
-      <c r="T3" s="69"/>
+      <c r="Q3" s="66"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="66"/>
     </row>
     <row r="4" spans="2:20">
       <c r="B4" s="3" t="s">
@@ -10611,12 +10568,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="H2:H3"/>
@@ -10625,6 +10576,12 @@
     <mergeCell ref="O2:P2"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10645,8 +10602,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09CE6446-A215-46C2-A4F3-5A62E65A31A9}">
   <dimension ref="B2:Y36"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScale="60" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="X29" sqref="X29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -10671,73 +10628,73 @@
     <col min="19" max="19" width="12.75" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10.25" bestFit="1" customWidth="1"/>
     <col min="21" max="22" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="61.5" style="49" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="61.5" style="44" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="65.375" customWidth="1"/>
     <col min="25" max="25" width="36.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:25">
-      <c r="B2" s="79" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="79" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="79" t="s">
+      <c r="B2" s="74" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="74" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="74" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="79" t="s">
+      <c r="E2" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="79" t="s">
+      <c r="F2" s="74" t="s">
         <v>201</v>
       </c>
-      <c r="G2" s="79" t="s">
+      <c r="G2" s="74" t="s">
         <v>262</v>
       </c>
-      <c r="H2" s="70" t="s">
+      <c r="H2" s="63" t="s">
         <v>263</v>
       </c>
-      <c r="I2" s="82" t="s">
+      <c r="I2" s="77" t="s">
         <v>264</v>
       </c>
-      <c r="J2" s="83"/>
-      <c r="K2" s="83"/>
-      <c r="L2" s="83"/>
-      <c r="M2" s="83"/>
-      <c r="N2" s="84"/>
-      <c r="O2" s="82" t="s">
+      <c r="J2" s="78"/>
+      <c r="K2" s="78"/>
+      <c r="L2" s="78"/>
+      <c r="M2" s="78"/>
+      <c r="N2" s="79"/>
+      <c r="O2" s="77" t="s">
         <v>265</v>
       </c>
-      <c r="P2" s="83"/>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="83"/>
-      <c r="S2" s="83"/>
-      <c r="T2" s="84"/>
-      <c r="U2" s="79" t="s">
+      <c r="P2" s="78"/>
+      <c r="Q2" s="78"/>
+      <c r="R2" s="78"/>
+      <c r="S2" s="78"/>
+      <c r="T2" s="79"/>
+      <c r="U2" s="74" t="s">
         <v>252</v>
       </c>
-      <c r="V2" s="79" t="s">
+      <c r="V2" s="74" t="s">
         <v>266</v>
       </c>
-      <c r="W2" s="85" t="s">
+      <c r="W2" s="80" t="s">
         <v>255</v>
       </c>
-      <c r="X2" s="79" t="s">
+      <c r="X2" s="74" t="s">
         <v>257</v>
       </c>
-      <c r="Y2" s="79" t="s">
+      <c r="Y2" s="74" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="3" spans="2:25">
-      <c r="B3" s="80"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="81"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="76"/>
       <c r="I3" s="14" t="s">
         <v>213</v>
       </c>
@@ -10774,11 +10731,11 @@
       <c r="T3" s="14" t="s">
         <v>249</v>
       </c>
-      <c r="U3" s="80"/>
-      <c r="V3" s="80"/>
-      <c r="W3" s="86"/>
-      <c r="X3" s="80"/>
-      <c r="Y3" s="80"/>
+      <c r="U3" s="75"/>
+      <c r="V3" s="75"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="75"/>
+      <c r="Y3" s="75"/>
     </row>
     <row r="4" spans="2:25">
       <c r="B4" s="27" t="s">
@@ -10993,10 +10950,10 @@
         <v>900218</v>
       </c>
       <c r="W6" s="43" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="X6" s="40" t="s">
-        <v>390</v>
+        <v>372</v>
       </c>
       <c r="Y6" s="35" t="s">
         <v>43</v>
@@ -11067,10 +11024,10 @@
         <v>900218</v>
       </c>
       <c r="W7" s="43" t="s">
-        <v>369</v>
+        <v>356</v>
       </c>
       <c r="X7" s="40" t="s">
-        <v>389</v>
+        <v>373</v>
       </c>
       <c r="Y7" s="35" t="s">
         <v>43</v>
@@ -11140,11 +11097,11 @@
       <c r="V8" s="35">
         <v>900219</v>
       </c>
-      <c r="W8" s="44" t="s">
-        <v>370</v>
+      <c r="W8" s="43" t="s">
+        <v>357</v>
       </c>
       <c r="X8" s="40" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="Y8" s="35" t="s">
         <v>286</v>
@@ -11214,8 +11171,8 @@
       <c r="V9" s="35">
         <v>900219</v>
       </c>
-      <c r="W9" s="44" t="s">
-        <v>370</v>
+      <c r="W9" s="43" t="s">
+        <v>357</v>
       </c>
       <c r="X9" s="40" t="s">
         <v>289</v>
@@ -11288,11 +11245,11 @@
       <c r="V10" s="35">
         <v>900220</v>
       </c>
-      <c r="W10" s="44" t="s">
-        <v>371</v>
+      <c r="W10" s="43" t="s">
+        <v>358</v>
       </c>
       <c r="X10" s="40" t="s">
-        <v>367</v>
+        <v>375</v>
       </c>
       <c r="Y10" s="35" t="s">
         <v>43</v>
@@ -11362,8 +11319,8 @@
       <c r="V11" s="35">
         <v>900220</v>
       </c>
-      <c r="W11" s="44" t="s">
-        <v>368</v>
+      <c r="W11" s="43" t="s">
+        <v>359</v>
       </c>
       <c r="X11" s="40" t="s">
         <v>294</v>
@@ -11436,11 +11393,11 @@
       <c r="V12" s="35">
         <v>900221</v>
       </c>
-      <c r="W12" s="45" t="s">
-        <v>372</v>
+      <c r="W12" s="43" t="s">
+        <v>360</v>
       </c>
       <c r="X12" s="40" t="s">
-        <v>297</v>
+        <v>376</v>
       </c>
       <c r="Y12" s="35" t="s">
         <v>43</v>
@@ -11451,10 +11408,10 @@
         <v>8</v>
       </c>
       <c r="C13" s="35" t="s">
+        <v>297</v>
+      </c>
+      <c r="D13" s="35" t="s">
         <v>298</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>299</v>
       </c>
       <c r="E13" s="35">
         <v>330004</v>
@@ -11510,11 +11467,11 @@
       <c r="V13" s="35">
         <v>900221</v>
       </c>
-      <c r="W13" s="46" t="s">
-        <v>372</v>
+      <c r="W13" s="43" t="s">
+        <v>360</v>
       </c>
       <c r="X13" s="40" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="Y13" s="35" t="s">
         <v>43</v>
@@ -11525,10 +11482,10 @@
         <v>9</v>
       </c>
       <c r="C14" s="35" t="s">
+        <v>300</v>
+      </c>
+      <c r="D14" s="35" t="s">
         <v>301</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>302</v>
       </c>
       <c r="E14" s="35">
         <v>330005</v>
@@ -11584,11 +11541,11 @@
       <c r="V14" s="35">
         <v>900222</v>
       </c>
-      <c r="W14" s="44" t="s">
-        <v>373</v>
+      <c r="W14" s="43" t="s">
+        <v>361</v>
       </c>
       <c r="X14" s="40" t="s">
-        <v>303</v>
+        <v>377</v>
       </c>
       <c r="Y14" s="35" t="s">
         <v>43</v>
@@ -11599,10 +11556,10 @@
         <v>10</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D15" s="35" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="E15" s="35">
         <v>330005</v>
@@ -11658,11 +11615,11 @@
       <c r="V15" s="35">
         <v>900222</v>
       </c>
-      <c r="W15" s="44" t="s">
-        <v>373</v>
+      <c r="W15" s="43" t="s">
+        <v>361</v>
       </c>
       <c r="X15" s="40" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="Y15" s="35" t="s">
         <v>43</v>
@@ -11673,10 +11630,10 @@
         <v>11</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="E16" s="35">
         <v>330006</v>
@@ -11732,11 +11689,11 @@
       <c r="V16" s="35">
         <v>900223</v>
       </c>
-      <c r="W16" s="44" t="s">
-        <v>374</v>
-      </c>
-      <c r="X16" s="35" t="s">
-        <v>309</v>
+      <c r="W16" s="43" t="s">
+        <v>362</v>
+      </c>
+      <c r="X16" s="40" t="s">
+        <v>378</v>
       </c>
       <c r="Y16" s="35" t="s">
         <v>43</v>
@@ -11747,10 +11704,10 @@
         <v>12</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D17" s="35" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="E17" s="35">
         <v>330007</v>
@@ -11806,11 +11763,11 @@
       <c r="V17" s="35">
         <v>900224</v>
       </c>
-      <c r="W17" s="47" t="s">
-        <v>375</v>
+      <c r="W17" s="43" t="s">
+        <v>309</v>
       </c>
       <c r="X17" s="40" t="s">
-        <v>313</v>
+        <v>379</v>
       </c>
       <c r="Y17" s="35" t="s">
         <v>43</v>
@@ -11821,10 +11778,10 @@
         <v>13</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E18" s="35">
         <v>330007</v>
@@ -11880,11 +11837,11 @@
       <c r="V18" s="35">
         <v>900224</v>
       </c>
-      <c r="W18" s="47" t="s">
+      <c r="W18" s="43" t="s">
+        <v>309</v>
+      </c>
+      <c r="X18" s="40" t="s">
         <v>312</v>
-      </c>
-      <c r="X18" s="40" t="s">
-        <v>316</v>
       </c>
       <c r="Y18" s="35" t="s">
         <v>43</v>
@@ -11895,10 +11852,10 @@
         <v>14</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="E19" s="35">
         <v>330008</v>
@@ -11954,11 +11911,11 @@
       <c r="V19" s="35">
         <v>900225</v>
       </c>
-      <c r="W19" s="47" t="s">
-        <v>319</v>
+      <c r="W19" s="43" t="s">
+        <v>315</v>
       </c>
       <c r="X19" s="40" t="s">
-        <v>320</v>
+        <v>380</v>
       </c>
       <c r="Y19" s="35" t="s">
         <v>43</v>
@@ -11969,10 +11926,10 @@
         <v>15</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="E20" s="35">
         <v>330008</v>
@@ -12028,11 +11985,11 @@
       <c r="V20" s="35">
         <v>900225</v>
       </c>
-      <c r="W20" s="47" t="s">
-        <v>319</v>
+      <c r="W20" s="43" t="s">
+        <v>315</v>
       </c>
       <c r="X20" s="40" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="Y20" s="35" t="s">
         <v>43</v>
@@ -12043,10 +12000,10 @@
         <v>16</v>
       </c>
       <c r="C21" s="35" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="D21" s="35" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E21" s="35">
         <v>330009</v>
@@ -12102,11 +12059,11 @@
       <c r="V21" s="35">
         <v>900226</v>
       </c>
-      <c r="W21" s="44" t="s">
-        <v>326</v>
-      </c>
-      <c r="X21" s="35" t="s">
-        <v>385</v>
+      <c r="W21" s="43" t="s">
+        <v>321</v>
+      </c>
+      <c r="X21" s="40" t="s">
+        <v>381</v>
       </c>
       <c r="Y21" s="35" t="s">
         <v>43</v>
@@ -12117,10 +12074,10 @@
         <v>17</v>
       </c>
       <c r="C22" s="35" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="D22" s="35" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E22" s="35">
         <v>330010</v>
@@ -12176,11 +12133,11 @@
       <c r="V22" s="35">
         <v>900227</v>
       </c>
-      <c r="W22" s="44" t="s">
-        <v>376</v>
-      </c>
-      <c r="X22" s="35" t="s">
-        <v>386</v>
+      <c r="W22" s="43" t="s">
+        <v>363</v>
+      </c>
+      <c r="X22" s="40" t="s">
+        <v>382</v>
       </c>
       <c r="Y22" s="35" t="s">
         <v>43</v>
@@ -12191,10 +12148,10 @@
         <v>18</v>
       </c>
       <c r="C23" s="35" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="D23" s="35" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="E23" s="35">
         <v>330011</v>
@@ -12250,11 +12207,11 @@
       <c r="V23" s="35">
         <v>900228</v>
       </c>
-      <c r="W23" s="44" t="s">
-        <v>377</v>
+      <c r="W23" s="43" t="s">
+        <v>364</v>
       </c>
       <c r="X23" s="40" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="Y23" s="35" t="s">
         <v>43</v>
@@ -12265,10 +12222,10 @@
         <v>19</v>
       </c>
       <c r="C24" s="35" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="D24" s="35" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E24" s="35">
         <v>330011</v>
@@ -12324,11 +12281,11 @@
       <c r="V24" s="35">
         <v>900228</v>
       </c>
-      <c r="W24" s="44" t="s">
-        <v>377</v>
+      <c r="W24" s="43" t="s">
+        <v>364</v>
       </c>
       <c r="X24" s="40" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="Y24" s="35" t="s">
         <v>43</v>
@@ -12339,10 +12296,10 @@
         <v>20</v>
       </c>
       <c r="C25" s="35" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="D25" s="35" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="E25" s="35">
         <v>330012</v>
@@ -12398,11 +12355,11 @@
       <c r="V25" s="35">
         <v>900229</v>
       </c>
-      <c r="W25" s="44" t="s">
-        <v>378</v>
+      <c r="W25" s="43" t="s">
+        <v>365</v>
       </c>
       <c r="X25" s="40" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="Y25" s="35" t="s">
         <v>43</v>
@@ -12413,10 +12370,10 @@
         <v>21</v>
       </c>
       <c r="C26" s="35" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D26" s="35" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="E26" s="35">
         <v>330012</v>
@@ -12472,11 +12429,11 @@
       <c r="V26" s="35">
         <v>900229</v>
       </c>
-      <c r="W26" s="44" t="s">
-        <v>378</v>
+      <c r="W26" s="43" t="s">
+        <v>365</v>
       </c>
       <c r="X26" s="40" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="Y26" s="35" t="s">
         <v>43</v>
@@ -12487,10 +12444,10 @@
         <v>22</v>
       </c>
       <c r="C27" s="35" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D27" s="35" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="E27" s="35">
         <v>330013</v>
@@ -12546,11 +12503,11 @@
       <c r="V27" s="35">
         <v>900230</v>
       </c>
-      <c r="W27" s="48" t="s">
-        <v>379</v>
+      <c r="W27" s="43" t="s">
+        <v>366</v>
       </c>
       <c r="X27" s="40" t="s">
-        <v>341</v>
+        <v>385</v>
       </c>
       <c r="Y27" s="35" t="s">
         <v>43</v>
@@ -12561,10 +12518,10 @@
         <v>23</v>
       </c>
       <c r="C28" s="35" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="D28" s="35" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="E28" s="35">
         <v>330013</v>
@@ -12620,11 +12577,11 @@
       <c r="V28" s="35">
         <v>900230</v>
       </c>
-      <c r="W28" s="48" t="s">
-        <v>379</v>
+      <c r="W28" s="43" t="s">
+        <v>366</v>
       </c>
       <c r="X28" s="40" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="Y28" s="35" t="s">
         <v>43</v>
@@ -12635,10 +12592,10 @@
         <v>24</v>
       </c>
       <c r="C29" s="35" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="D29" s="35" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="E29" s="35">
         <v>330014</v>
@@ -12694,11 +12651,11 @@
       <c r="V29" s="35">
         <v>900231</v>
       </c>
-      <c r="W29" s="44" t="s">
-        <v>380</v>
+      <c r="W29" s="43" t="s">
+        <v>367</v>
       </c>
       <c r="X29" s="40" t="s">
-        <v>347</v>
+        <v>386</v>
       </c>
       <c r="Y29" s="35" t="s">
         <v>43</v>
@@ -12709,10 +12666,10 @@
         <v>25</v>
       </c>
       <c r="C30" s="35" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
       <c r="D30" s="35" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="E30" s="35">
         <v>330014</v>
@@ -12768,11 +12725,11 @@
       <c r="V30" s="35">
         <v>900231</v>
       </c>
-      <c r="W30" s="44" t="s">
-        <v>380</v>
+      <c r="W30" s="43" t="s">
+        <v>367</v>
       </c>
       <c r="X30" s="40" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="Y30" s="35" t="s">
         <v>43</v>
@@ -12783,10 +12740,10 @@
         <v>26</v>
       </c>
       <c r="C31" s="35" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="D31" s="35" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
       <c r="E31" s="35">
         <v>330015</v>
@@ -12842,11 +12799,11 @@
       <c r="V31" s="35">
         <v>900232</v>
       </c>
-      <c r="W31" s="44" t="s">
-        <v>381</v>
+      <c r="W31" s="43" t="s">
+        <v>368</v>
       </c>
       <c r="X31" s="40" t="s">
-        <v>352</v>
+        <v>387</v>
       </c>
       <c r="Y31" s="35" t="s">
         <v>43</v>
@@ -12857,10 +12814,10 @@
         <v>27</v>
       </c>
       <c r="C32" s="35" t="s">
-        <v>353</v>
+        <v>345</v>
       </c>
       <c r="D32" s="35" t="s">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="E32" s="35">
         <v>330015</v>
@@ -12916,11 +12873,11 @@
       <c r="V32" s="35">
         <v>900232</v>
       </c>
-      <c r="W32" s="44" t="s">
-        <v>382</v>
+      <c r="W32" s="43" t="s">
+        <v>369</v>
       </c>
       <c r="X32" s="40" t="s">
-        <v>355</v>
+        <v>347</v>
       </c>
       <c r="Y32" s="35" t="s">
         <v>43</v>
@@ -12931,10 +12888,10 @@
         <v>28</v>
       </c>
       <c r="C33" s="35" t="s">
-        <v>356</v>
+        <v>348</v>
       </c>
       <c r="D33" s="35" t="s">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="E33" s="35">
         <v>330016</v>
@@ -12990,11 +12947,11 @@
       <c r="V33" s="35">
         <v>900233</v>
       </c>
-      <c r="W33" s="44" t="s">
-        <v>383</v>
+      <c r="W33" s="43" t="s">
+        <v>370</v>
       </c>
       <c r="X33" s="40" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="Y33" s="35" t="s">
         <v>43</v>
@@ -13005,10 +12962,10 @@
         <v>29</v>
       </c>
       <c r="C34" s="35" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="D34" s="35" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="E34" s="35">
         <v>330016</v>
@@ -13064,11 +13021,11 @@
       <c r="V34" s="35">
         <v>900233</v>
       </c>
-      <c r="W34" s="44" t="s">
-        <v>383</v>
+      <c r="W34" s="43" t="s">
+        <v>370</v>
       </c>
       <c r="X34" s="40" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="Y34" s="35" t="s">
         <v>43</v>
@@ -13079,10 +13036,10 @@
         <v>30</v>
       </c>
       <c r="C35" s="35" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="D35" s="35" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
       <c r="E35" s="35">
         <v>330017</v>
@@ -13138,11 +13095,11 @@
       <c r="V35" s="35">
         <v>900234</v>
       </c>
-      <c r="W35" s="44" t="s">
-        <v>384</v>
-      </c>
-      <c r="X35" s="35" t="s">
-        <v>364</v>
+      <c r="W35" s="43" t="s">
+        <v>371</v>
+      </c>
+      <c r="X35" s="40" t="s">
+        <v>389</v>
       </c>
       <c r="Y35" s="35" t="s">
         <v>43</v>
@@ -13153,12 +13110,6 @@
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="G2:G3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="X2:X3"/>
     <mergeCell ref="Y2:Y3"/>
     <mergeCell ref="H2:H3"/>
@@ -13167,6 +13118,12 @@
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="W2:W3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
